--- a/Zeitübersicht.xlsx
+++ b/Zeitübersicht.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -83,7 +83,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -401,7 +401,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,9 +473,18 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>43172</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E22" si="0">D5-C5</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="2"/>
@@ -486,9 +495,18 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>43172</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.76736111111111116</v>
+      </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10069444444444453</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="2"/>

--- a/Zeitübersicht.xlsx
+++ b/Zeitübersicht.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="23040" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,59 +474,86 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <v>43172</v>
+        <v>43170</v>
       </c>
       <c r="C5" s="2">
-        <v>0.375</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D5" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E22" si="0">D5-C5</f>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>6.9444444444444531E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>43171</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.78611111111111109</v>
+      </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J22" si="1">I5-H5</f>
-        <v>0</v>
+        <v>0.15277777777777779</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
+        <v>43171</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G6" s="1">
         <v>43172</v>
       </c>
-      <c r="C6" s="2">
+      <c r="H6" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>9.5833333333333437E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>43172</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>0.76736111111111116</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0.10069444444444453</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="1">
+        <v>43173</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="J7" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
